--- a/Code/Results/Cases/Case_2_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.492627053427157</v>
+        <v>1.273737299345328</v>
       </c>
       <c r="C2">
-        <v>0.5084114373762247</v>
+        <v>0.3063437075418847</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03461723340127421</v>
+        <v>0.1007883983159239</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1083791898538777</v>
+        <v>0.2485704132827209</v>
       </c>
       <c r="H2">
-        <v>0.1342287003919935</v>
+        <v>0.4385839356070704</v>
       </c>
       <c r="I2">
-        <v>0.1019363756590197</v>
+        <v>0.3972548585594522</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3307685073850593</v>
+        <v>0.2154034315090172</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4612265620841924</v>
+        <v>1.29235046425886</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.042992634437667</v>
+        <v>1.126921057944401</v>
       </c>
       <c r="C3">
-        <v>0.4627477001697002</v>
+        <v>0.2913928432706996</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03554994469659434</v>
+        <v>0.1022443921992622</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1077931630991387</v>
+        <v>0.2537946314256629</v>
       </c>
       <c r="H3">
-        <v>0.1404654706485431</v>
+        <v>0.4452073174105493</v>
       </c>
       <c r="I3">
-        <v>0.1158659277060119</v>
+        <v>0.4070851709228798</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2902391293199287</v>
+        <v>0.2045791096859233</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4726788076930148</v>
+        <v>1.317043984179094</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.766746471985016</v>
+        <v>1.036464842328257</v>
       </c>
       <c r="C4">
-        <v>0.4347680052223666</v>
+        <v>0.2822237813277582</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03624368593574268</v>
+        <v>0.1032103372163595</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1082391506246623</v>
+        <v>0.2573350179696341</v>
       </c>
       <c r="H4">
-        <v>0.1448094788110481</v>
+        <v>0.4495651765221176</v>
       </c>
       <c r="I4">
-        <v>0.1251739181755394</v>
+        <v>0.4134934390738567</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2655476494456224</v>
+        <v>0.1980181924961073</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4824877619269046</v>
+        <v>1.333512258986381</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.654106256935847</v>
+        <v>0.9995279378966302</v>
       </c>
       <c r="C5">
-        <v>0.4233784411018462</v>
+        <v>0.2784904288306507</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03655577159780954</v>
+        <v>0.1036220571482325</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.108611923480467</v>
+        <v>0.2588611184792349</v>
       </c>
       <c r="H5">
-        <v>0.1467039407084911</v>
+        <v>0.4514141767436755</v>
       </c>
       <c r="I5">
-        <v>0.129148920445906</v>
+        <v>0.4161983324653917</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2555292113007823</v>
+        <v>0.1953661542435015</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4871479448373464</v>
+        <v>1.340550960283302</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.635397647776472</v>
+        <v>0.9933901303133439</v>
       </c>
       <c r="C6">
-        <v>0.4214879002529699</v>
+        <v>0.2778707081949676</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03660933748780693</v>
+        <v>0.103691515336843</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1086850302565736</v>
+        <v>0.2591195526327219</v>
       </c>
       <c r="H6">
-        <v>0.1470258720704436</v>
+        <v>0.4517256174804025</v>
       </c>
       <c r="I6">
-        <v>0.1298197271798651</v>
+        <v>0.4166531182943691</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2538681409995007</v>
+        <v>0.1949270936350018</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4879607994893931</v>
+        <v>1.341739504309707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.765227672576998</v>
+        <v>1.035966999321147</v>
       </c>
       <c r="C7">
-        <v>0.434614354187346</v>
+        <v>0.2821734188991059</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03624777724151684</v>
+        <v>0.1032158165784267</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1082434194586774</v>
+        <v>0.2573552623476125</v>
       </c>
       <c r="H7">
-        <v>0.1448345317820952</v>
+        <v>0.4495898167301746</v>
       </c>
       <c r="I7">
-        <v>0.1252268001526682</v>
+        <v>0.4135295399795034</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2654123676305034</v>
+        <v>0.197982338570057</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4825479721646317</v>
+        <v>1.333605859337887</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.337612252633846</v>
+        <v>1.223181123815095</v>
       </c>
       <c r="C8">
-        <v>0.492653139128862</v>
+        <v>0.3011866310298785</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03491305767953534</v>
+        <v>0.1012754869596808</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1080027430757724</v>
+        <v>0.2503024963225329</v>
       </c>
       <c r="H8">
-        <v>0.1362691581677637</v>
+        <v>0.4408072317359171</v>
       </c>
       <c r="I8">
-        <v>0.106577642146692</v>
+        <v>0.4005669513034755</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3167505607701742</v>
+        <v>0.2116535953146439</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4645770940388019</v>
+        <v>1.300593209673607</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.460004040728279</v>
+        <v>1.587739031613694</v>
       </c>
       <c r="C9">
-        <v>0.6070422779888816</v>
+        <v>0.3385421786347251</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0333059181921147</v>
+        <v>0.09804168386543921</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1144729991823041</v>
+        <v>0.2391249625452474</v>
       </c>
       <c r="H9">
-        <v>0.1237992095362088</v>
+        <v>0.4258965288243743</v>
       </c>
       <c r="I9">
-        <v>0.07637406154242399</v>
+        <v>0.3781097380250849</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4192135568373061</v>
+        <v>0.2391343705540976</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4530456921932995</v>
+        <v>1.246253858284007</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.286605738017499</v>
+        <v>1.85389911457969</v>
       </c>
       <c r="C10">
-        <v>0.6916174010289922</v>
+        <v>0.3660128330928387</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03281324220525761</v>
+        <v>0.09601428965141778</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1242614199003711</v>
+        <v>0.2325480498444321</v>
       </c>
       <c r="H10">
-        <v>0.1176311124530116</v>
+        <v>0.4163540710123499</v>
       </c>
       <c r="I10">
-        <v>0.05861133920274941</v>
+        <v>0.3634259661681591</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4959621452696297</v>
+        <v>0.2597293837862509</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4614750152611293</v>
+        <v>1.212714544750114</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.663570138410762</v>
+        <v>1.974594882679469</v>
       </c>
       <c r="C11">
-        <v>0.7302537784725018</v>
+        <v>0.3785119954132767</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03275539079321632</v>
+        <v>0.09516770265140018</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1299970496405365</v>
+        <v>0.2299149288767453</v>
       </c>
       <c r="H11">
-        <v>0.1155591205611941</v>
+        <v>0.4123202976567768</v>
       </c>
       <c r="I11">
-        <v>0.05162052826889951</v>
+        <v>0.3571421905571972</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5312863975247808</v>
+        <v>0.2691857057761524</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4695573285225123</v>
+        <v>1.198852325934581</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.806494627994027</v>
+        <v>2.020241906434649</v>
       </c>
       <c r="C12">
-        <v>0.7449116964521636</v>
+        <v>0.3832451328644026</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03275888848957287</v>
+        <v>0.09485801151140016</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1323703744801463</v>
+        <v>0.2289697339516863</v>
       </c>
       <c r="H12">
-        <v>0.1148875749545795</v>
+        <v>0.4108370400106836</v>
       </c>
       <c r="I12">
-        <v>0.04914146488899007</v>
+        <v>0.3548198080863605</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5447298078408949</v>
+        <v>0.2727790405239148</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4732803719184204</v>
+        <v>1.193804455654657</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.775704750894931</v>
+        <v>2.010413622381463</v>
       </c>
       <c r="C13">
-        <v>0.741753580273496</v>
+        <v>0.3822257744467095</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03275698054626019</v>
+        <v>0.09492422442019155</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1318499995579145</v>
+        <v>0.229170984720092</v>
       </c>
       <c r="H13">
-        <v>0.1150270499436274</v>
+        <v>0.4111545170372324</v>
       </c>
       <c r="I13">
-        <v>0.04966770302820667</v>
+        <v>0.3553174297327937</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5418314242650126</v>
+        <v>0.2720046012454986</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4724482264957004</v>
+        <v>1.194882631698633</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.675324841825955</v>
+        <v>1.978351466852985</v>
       </c>
       <c r="C14">
-        <v>0.731459127190476</v>
+        <v>0.3789013962475565</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03275516051779448</v>
+        <v>0.09514200580895249</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1301881680226842</v>
+        <v>0.2298361249075214</v>
       </c>
       <c r="H14">
-        <v>0.1155015609803627</v>
+        <v>0.4121973819770091</v>
       </c>
       <c r="I14">
-        <v>0.05141313446453744</v>
+        <v>0.3569499802398104</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5323910079507073</v>
+        <v>0.2694810833615264</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4698500411608251</v>
+        <v>1.19843299235373</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.613863482544275</v>
+        <v>1.95870485085328</v>
       </c>
       <c r="C15">
-        <v>0.7251571315771344</v>
+        <v>0.3768651036336337</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03275740004975169</v>
+        <v>0.09527682206778643</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1291969927199546</v>
+        <v>0.230250312354741</v>
       </c>
       <c r="H15">
-        <v>0.1158071703998687</v>
+        <v>0.4128419311678755</v>
       </c>
       <c r="I15">
-        <v>0.0525045217130975</v>
+        <v>0.3579574130230316</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5266174311358753</v>
+        <v>0.2679369699619656</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.468346438454148</v>
+        <v>1.200633950916384</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.261992572460656</v>
+        <v>1.846003427547942</v>
       </c>
       <c r="C16">
-        <v>0.6890960116089673</v>
+        <v>0.3651960018387967</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03282049453073554</v>
+        <v>0.09607113989934923</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1239138159819291</v>
+        <v>0.2327273771179534</v>
       </c>
       <c r="H16">
-        <v>0.1177819231390416</v>
+        <v>0.4166238747308952</v>
       </c>
       <c r="I16">
-        <v>0.05909109850376471</v>
+        <v>0.3638446111286093</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4936625448690535</v>
+        <v>0.2591131390341275</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.461036628786843</v>
+        <v>1.213648617124377</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.046399979703551</v>
+        <v>1.776764867442068</v>
       </c>
       <c r="C17">
-        <v>0.6670179370699998</v>
+        <v>0.3580377710554501</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03290282311525061</v>
+        <v>0.09657781974153679</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1210129978657903</v>
+        <v>0.2343390910482341</v>
       </c>
       <c r="H17">
-        <v>0.1191865495102107</v>
+        <v>0.4190226962337533</v>
       </c>
       <c r="I17">
-        <v>0.06341878347375296</v>
+        <v>0.3675577776407764</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4735564117722362</v>
+        <v>0.2537223147122631</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4576759256959235</v>
+        <v>1.221990591457967</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.922482556752982</v>
+        <v>1.736904917587708</v>
       </c>
       <c r="C18">
-        <v>0.6543342854946275</v>
+        <v>0.3539208167417485</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03296573181856388</v>
+        <v>0.09687637183464837</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1194641945420045</v>
+        <v>0.2352998543032641</v>
       </c>
       <c r="H18">
-        <v>0.1200630524100319</v>
+        <v>0.42043133957403</v>
       </c>
       <c r="I18">
-        <v>0.06600977380645379</v>
+        <v>0.3697307485637795</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.462030076711045</v>
+        <v>0.250629904941178</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4561394732291149</v>
+        <v>1.22691992614017</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.880539769900622</v>
+        <v>1.723402971497023</v>
       </c>
       <c r="C19">
-        <v>0.650042298399228</v>
+        <v>0.3525269455399211</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03298965914892626</v>
+        <v>0.09697867957287087</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1189598529572322</v>
+        <v>0.2356309386116067</v>
       </c>
       <c r="H19">
-        <v>0.120371381517046</v>
+        <v>0.4209132440069965</v>
       </c>
       <c r="I19">
-        <v>0.06690418685718846</v>
+        <v>0.3704728714719767</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4581337868051207</v>
+        <v>0.2495842898681104</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4556858440221845</v>
+        <v>1.228611430654936</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.069341018174043</v>
+        <v>1.784139152930152</v>
       </c>
       <c r="C20">
-        <v>0.6693665995758238</v>
+        <v>0.3587997518426675</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0328924386111602</v>
+        <v>0.09652314550775998</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.121309290590915</v>
+        <v>0.2341640262072602</v>
       </c>
       <c r="H20">
-        <v>0.1190298718805209</v>
+        <v>0.4187643454945444</v>
       </c>
       <c r="I20">
-        <v>0.0629474747993708</v>
+        <v>0.3671586473691821</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4756927376934641</v>
+        <v>0.2542953244903003</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4579922752589027</v>
+        <v>1.22108898378724</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.704803725827105</v>
+        <v>1.987770492341326</v>
       </c>
       <c r="C21">
-        <v>0.7344820889148593</v>
+        <v>0.3798778505409643</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03275499326505837</v>
+        <v>0.09507774242786127</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1306706829437516</v>
+        <v>0.2296393457017558</v>
       </c>
       <c r="H21">
-        <v>0.1153590542457579</v>
+        <v>0.4118898658495382</v>
       </c>
       <c r="I21">
-        <v>0.05089579832764457</v>
+        <v>0.3564689079555778</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5351620070368028</v>
+        <v>0.2702219656256659</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4705947840384397</v>
+        <v>1.197384691259742</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.121164244819283</v>
+        <v>2.120516835203205</v>
       </c>
       <c r="C22">
-        <v>0.7771991150571296</v>
+        <v>0.3936532828370503</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03281400255093736</v>
+        <v>0.09419658493401073</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1379712792318841</v>
+        <v>0.2269849299630877</v>
       </c>
       <c r="H22">
-        <v>0.1136229054601614</v>
+        <v>0.4076549246474173</v>
       </c>
       <c r="I22">
-        <v>0.04400565361282016</v>
+        <v>0.3498157388402028</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5744224773232673</v>
+        <v>0.280703329521657</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4827189831981826</v>
+        <v>1.183067169839134</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.89883432391872</v>
+        <v>2.049699553585981</v>
       </c>
       <c r="C23">
-        <v>0.7543842408269086</v>
+        <v>0.3863012365823977</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03276837181292969</v>
+        <v>0.09466106216769887</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1339607438798538</v>
+        <v>0.2283738360806922</v>
       </c>
       <c r="H23">
-        <v>0.1144862372588591</v>
+        <v>0.4098915661028215</v>
       </c>
       <c r="I23">
-        <v>0.04758879870367316</v>
+        <v>0.3533361038034597</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5534296657662026</v>
+        <v>0.2751026574996729</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.475874373226759</v>
+        <v>1.190600943254211</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.058969285463604</v>
+        <v>1.780805405754222</v>
       </c>
       <c r="C24">
-        <v>0.6683047404842739</v>
+        <v>0.3584552652581863</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03289708503897337</v>
+        <v>0.09654784113080339</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1211749675188614</v>
+        <v>0.2342430666177862</v>
       </c>
       <c r="H24">
-        <v>0.1191004915920288</v>
+        <v>0.4188810538890309</v>
       </c>
       <c r="I24">
-        <v>0.06316023365875445</v>
+        <v>0.3673389751220384</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4747268026991946</v>
+        <v>0.2540362454316067</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.457848025090783</v>
+        <v>1.22149618507882</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.156174679930245</v>
+        <v>1.489403392767713</v>
       </c>
       <c r="C25">
-        <v>0.5760174725009506</v>
+        <v>0.3284307758003706</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03362531279231895</v>
+        <v>0.09885533569605798</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1118994275278027</v>
+        <v>0.2418629077081889</v>
       </c>
       <c r="H25">
-        <v>0.1266739971555779</v>
+        <v>0.4296824480512527</v>
       </c>
       <c r="I25">
-        <v>0.08380878260960678</v>
+        <v>0.383866872308654</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3912654882968098</v>
+        <v>0.2316286694593117</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4533830803949854</v>
+        <v>1.259836239717316</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.273737299345328</v>
+        <v>3.49262705342727</v>
       </c>
       <c r="C2">
-        <v>0.3063437075418847</v>
+        <v>0.5084114373761963</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1007883983159239</v>
+        <v>0.03461723340129907</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2485704132827209</v>
+        <v>0.1083791898538209</v>
       </c>
       <c r="H2">
-        <v>0.4385839356070704</v>
+        <v>0.1342287003920006</v>
       </c>
       <c r="I2">
-        <v>0.3972548585594522</v>
+        <v>0.1019363756590188</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2154034315090172</v>
+        <v>0.3307685073850166</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.29235046425886</v>
+        <v>0.4612265620841214</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.126921057944401</v>
+        <v>3.042992634438008</v>
       </c>
       <c r="C3">
-        <v>0.2913928432706996</v>
+        <v>0.4627477001696434</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1022443921992622</v>
+        <v>0.03554994469659967</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.2537946314256629</v>
+        <v>0.1077931630990818</v>
       </c>
       <c r="H3">
-        <v>0.4452073174105493</v>
+        <v>0.1404654706484365</v>
       </c>
       <c r="I3">
-        <v>0.4070851709228798</v>
+        <v>0.1158659277060261</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2045791096859233</v>
+        <v>0.2902391293199003</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.317043984179094</v>
+        <v>0.4726788076930148</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.036464842328257</v>
+        <v>2.766746471984959</v>
       </c>
       <c r="C4">
-        <v>0.2822237813277582</v>
+        <v>0.4347680052225655</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1032103372163595</v>
+        <v>0.03624368593571248</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2573350179696341</v>
+        <v>0.1082391506246658</v>
       </c>
       <c r="H4">
-        <v>0.4495651765221176</v>
+        <v>0.1448094788110446</v>
       </c>
       <c r="I4">
-        <v>0.4134934390738567</v>
+        <v>0.1251739181755394</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1980181924961073</v>
+        <v>0.2655476494456224</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.333512258986381</v>
+        <v>0.4824877619269046</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9995279378966302</v>
+        <v>2.65410625693579</v>
       </c>
       <c r="C5">
-        <v>0.2784904288306507</v>
+        <v>0.4233784411018178</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1036220571482325</v>
+        <v>0.03655577159783441</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.2588611184792349</v>
+        <v>0.1086119234805345</v>
       </c>
       <c r="H5">
-        <v>0.4514141767436755</v>
+        <v>0.146703940708484</v>
       </c>
       <c r="I5">
-        <v>0.4161983324653917</v>
+        <v>0.1291489204459038</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1953661542435015</v>
+        <v>0.2555292113007681</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.340550960283302</v>
+        <v>0.4871479448372824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9933901303133439</v>
+        <v>2.635397647776301</v>
       </c>
       <c r="C6">
-        <v>0.2778707081949676</v>
+        <v>0.4214879002524583</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.103691515336843</v>
+        <v>0.03660933748783268</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.2591195526327219</v>
+        <v>0.1086850302565736</v>
       </c>
       <c r="H6">
-        <v>0.4517256174804025</v>
+        <v>0.1470258720704436</v>
       </c>
       <c r="I6">
-        <v>0.4166531182943691</v>
+        <v>0.1298197271798776</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1949270936350018</v>
+        <v>0.2538681409995576</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.341739504309707</v>
+        <v>0.487960799489457</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.035966999321147</v>
+        <v>2.765227672577112</v>
       </c>
       <c r="C7">
-        <v>0.2821734188991059</v>
+        <v>0.4346143541875733</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1032158165784267</v>
+        <v>0.03624777724148487</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2573552623476125</v>
+        <v>0.1082434194586881</v>
       </c>
       <c r="H7">
-        <v>0.4495898167301746</v>
+        <v>0.1448345317821023</v>
       </c>
       <c r="I7">
-        <v>0.4135295399795034</v>
+        <v>0.1252268001526851</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.197982338570057</v>
+        <v>0.2654123676305744</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.333605859337887</v>
+        <v>0.4825479721647028</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.223181123815095</v>
+        <v>3.337612252633733</v>
       </c>
       <c r="C8">
-        <v>0.3011866310298785</v>
+        <v>0.4926531391288052</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1012754869596808</v>
+        <v>0.03491305767956199</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.2503024963225329</v>
+        <v>0.1080027430757724</v>
       </c>
       <c r="H8">
-        <v>0.4408072317359171</v>
+        <v>0.1362691581678845</v>
       </c>
       <c r="I8">
-        <v>0.4005669513034755</v>
+        <v>0.1065776421466929</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2116535953146439</v>
+        <v>0.3167505607701884</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.300593209673607</v>
+        <v>0.4645770940388019</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.587739031613694</v>
+        <v>4.460004040728222</v>
       </c>
       <c r="C9">
-        <v>0.3385421786347251</v>
+        <v>0.6070422779885973</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09804168386543921</v>
+        <v>0.03330591819215201</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.2391249625452474</v>
+        <v>0.1144729991823041</v>
       </c>
       <c r="H9">
-        <v>0.4258965288243743</v>
+        <v>0.1237992095362088</v>
       </c>
       <c r="I9">
-        <v>0.3781097380250849</v>
+        <v>0.07637406154244264</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2391343705540976</v>
+        <v>0.4192135568374056</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.246253858284007</v>
+        <v>0.4530456921932995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.85389911457969</v>
+        <v>5.286605738017499</v>
       </c>
       <c r="C10">
-        <v>0.3660128330928387</v>
+        <v>0.6916174010289353</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09601428965141778</v>
+        <v>0.03281324220526827</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2325480498444321</v>
+        <v>0.1242614199003285</v>
       </c>
       <c r="H10">
-        <v>0.4163540710123499</v>
+        <v>0.1176311124530045</v>
       </c>
       <c r="I10">
-        <v>0.3634259661681591</v>
+        <v>0.05861133920276274</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2597293837862509</v>
+        <v>0.4959621452695728</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.212714544750114</v>
+        <v>0.4614750152611151</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.974594882679469</v>
+        <v>5.663570138410762</v>
       </c>
       <c r="C11">
-        <v>0.3785119954132767</v>
+        <v>0.730253778472445</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09516770265140018</v>
+        <v>0.03275539079320211</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2299149288767453</v>
+        <v>0.1299970496406075</v>
       </c>
       <c r="H11">
-        <v>0.4123202976567768</v>
+        <v>0.1155591205612154</v>
       </c>
       <c r="I11">
-        <v>0.3571421905571972</v>
+        <v>0.05162052826890129</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2691857057761524</v>
+        <v>0.5312863975248376</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.198852325934581</v>
+        <v>0.4695573285225265</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.020241906434649</v>
+        <v>5.806494627994141</v>
       </c>
       <c r="C12">
-        <v>0.3832451328644026</v>
+        <v>0.7449116964521636</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09485801151140016</v>
+        <v>0.03275888848955866</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2289697339516863</v>
+        <v>0.1323703744801605</v>
       </c>
       <c r="H12">
-        <v>0.4108370400106836</v>
+        <v>0.1148875749545724</v>
       </c>
       <c r="I12">
-        <v>0.3548198080863605</v>
+        <v>0.04914146488898563</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2727790405239148</v>
+        <v>0.5447298078409801</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.193804455654657</v>
+        <v>0.4732803719184204</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.010413622381463</v>
+        <v>5.775704750894874</v>
       </c>
       <c r="C13">
-        <v>0.3822257744467095</v>
+        <v>0.7417535802734676</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09492422442019155</v>
+        <v>0.03275698054628151</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.229170984720092</v>
+        <v>0.1318499995578506</v>
       </c>
       <c r="H13">
-        <v>0.4111545170372324</v>
+        <v>0.1150270499436274</v>
       </c>
       <c r="I13">
-        <v>0.3553174297327937</v>
+        <v>0.04966770302822265</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2720046012454986</v>
+        <v>0.5418314242650553</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.194882631698633</v>
+        <v>0.4724482264957146</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.978351466852985</v>
+        <v>5.675324841825841</v>
       </c>
       <c r="C14">
-        <v>0.3789013962475565</v>
+        <v>0.7314591271904476</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09514200580895249</v>
+        <v>0.03275516051776606</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2298361249075214</v>
+        <v>0.1301881680226202</v>
       </c>
       <c r="H14">
-        <v>0.4121973819770091</v>
+        <v>0.1155015609803698</v>
       </c>
       <c r="I14">
-        <v>0.3569499802398104</v>
+        <v>0.05141313446453655</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2694810833615264</v>
+        <v>0.5323910079505509</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.19843299235373</v>
+        <v>0.4698500411607682</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.95870485085328</v>
+        <v>5.613863482544446</v>
       </c>
       <c r="C15">
-        <v>0.3768651036336337</v>
+        <v>0.7251571315776175</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09527682206778643</v>
+        <v>0.03275740004974992</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.230250312354741</v>
+        <v>0.1291969927199617</v>
       </c>
       <c r="H15">
-        <v>0.4128419311678755</v>
+        <v>0.1158071703998687</v>
       </c>
       <c r="I15">
-        <v>0.3579574130230316</v>
+        <v>0.05250452171309483</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2679369699619656</v>
+        <v>0.5266174311359606</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.200633950916384</v>
+        <v>0.4683464384540912</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.846003427547942</v>
+        <v>5.261992572460656</v>
       </c>
       <c r="C16">
-        <v>0.3651960018387967</v>
+        <v>0.6890960116089389</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09607113989934923</v>
+        <v>0.03282049453073554</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2327273771179534</v>
+        <v>0.1239138159819433</v>
       </c>
       <c r="H16">
-        <v>0.4166238747308952</v>
+        <v>0.1177819231390416</v>
       </c>
       <c r="I16">
-        <v>0.3638446111286093</v>
+        <v>0.05909109850374872</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2591131390341275</v>
+        <v>0.4936625448689256</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.213648617124377</v>
+        <v>0.4610366287867862</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.776764867442068</v>
+        <v>5.046399979703381</v>
       </c>
       <c r="C17">
-        <v>0.3580377710554501</v>
+        <v>0.667017937070284</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09657781974153679</v>
+        <v>0.03290282311522041</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.2343390910482341</v>
+        <v>0.1210129978658401</v>
       </c>
       <c r="H17">
-        <v>0.4190226962337533</v>
+        <v>0.1191865495102107</v>
       </c>
       <c r="I17">
-        <v>0.3675577776407764</v>
+        <v>0.0634187834737503</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2537223147122631</v>
+        <v>0.473556411772492</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.221990591457967</v>
+        <v>0.4576759256959804</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.736904917587708</v>
+        <v>4.922482556752925</v>
       </c>
       <c r="C18">
-        <v>0.3539208167417485</v>
+        <v>0.6543342854946559</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09687637183464837</v>
+        <v>0.03296573181853724</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2352998543032641</v>
+        <v>0.1194641945420543</v>
       </c>
       <c r="H18">
-        <v>0.42043133957403</v>
+        <v>0.1200630524100248</v>
       </c>
       <c r="I18">
-        <v>0.3697307485637795</v>
+        <v>0.06600977380646533</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.250629904941178</v>
+        <v>0.4620300767109882</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.22691992614017</v>
+        <v>0.4561394732291006</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.723402971497023</v>
+        <v>4.880539769900565</v>
       </c>
       <c r="C19">
-        <v>0.3525269455399211</v>
+        <v>0.650042298399228</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09697867957287087</v>
+        <v>0.03298965914892094</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2356309386116067</v>
+        <v>0.1189598529572464</v>
       </c>
       <c r="H19">
-        <v>0.4209132440069965</v>
+        <v>0.1203713815171596</v>
       </c>
       <c r="I19">
-        <v>0.3704728714719767</v>
+        <v>0.06690418685720445</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2495842898681104</v>
+        <v>0.4581337868050923</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.228611430654936</v>
+        <v>0.4556858440221845</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.784139152930152</v>
+        <v>5.069341018174043</v>
       </c>
       <c r="C20">
-        <v>0.3587997518426675</v>
+        <v>0.6693665995756533</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09652314550775998</v>
+        <v>0.03289243861116908</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2341640262072602</v>
+        <v>0.1213092905909647</v>
       </c>
       <c r="H20">
-        <v>0.4187643454945444</v>
+        <v>0.1190298718805209</v>
       </c>
       <c r="I20">
-        <v>0.3671586473691821</v>
+        <v>0.0629474747993708</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2542953244903003</v>
+        <v>0.475692737693393</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.22108898378724</v>
+        <v>0.4579922752589454</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.987770492341326</v>
+        <v>5.704803725826991</v>
       </c>
       <c r="C21">
-        <v>0.3798778505409643</v>
+        <v>0.7344820889150583</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09507774242786127</v>
+        <v>0.03275499326503883</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2296393457017558</v>
+        <v>0.130670682943709</v>
       </c>
       <c r="H21">
-        <v>0.4118898658495382</v>
+        <v>0.115359054245765</v>
       </c>
       <c r="I21">
-        <v>0.3564689079555778</v>
+        <v>0.05089579832764102</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2702219656256659</v>
+        <v>0.5351620070368313</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.197384691259742</v>
+        <v>0.4705947840384255</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.120516835203205</v>
+        <v>6.121164244819511</v>
       </c>
       <c r="C22">
-        <v>0.3936532828370503</v>
+        <v>0.7771991150573569</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09419658493401073</v>
+        <v>0.03281400255096756</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2269849299630877</v>
+        <v>0.1379712792318983</v>
       </c>
       <c r="H22">
-        <v>0.4076549246474173</v>
+        <v>0.1136229054601614</v>
       </c>
       <c r="I22">
-        <v>0.3498157388402028</v>
+        <v>0.04400565361280595</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.280703329521657</v>
+        <v>0.5744224773230826</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.183067169839134</v>
+        <v>0.4827189831981826</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.049699553585981</v>
+        <v>5.89883432391855</v>
       </c>
       <c r="C23">
-        <v>0.3863012365823977</v>
+        <v>0.754384240827136</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09466106216769887</v>
+        <v>0.03276837181290304</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2283738360806922</v>
+        <v>0.1339607438797898</v>
       </c>
       <c r="H23">
-        <v>0.4098915661028215</v>
+        <v>0.1144862372588591</v>
       </c>
       <c r="I23">
-        <v>0.3533361038034597</v>
+        <v>0.0475887987036705</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2751026574996729</v>
+        <v>0.5534296657662878</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.190600943254211</v>
+        <v>0.475874373226759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.780805405754222</v>
+        <v>5.058969285463263</v>
       </c>
       <c r="C24">
-        <v>0.3584552652581863</v>
+        <v>0.6683047404840465</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09654784113080339</v>
+        <v>0.03289708503895383</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2342430666177862</v>
+        <v>0.1211749675188472</v>
       </c>
       <c r="H24">
-        <v>0.4188810538890309</v>
+        <v>0.1191004915921354</v>
       </c>
       <c r="I24">
-        <v>0.3673389751220384</v>
+        <v>0.06316023365877044</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2540362454316067</v>
+        <v>0.4747268026990383</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.22149618507882</v>
+        <v>0.4578480250908257</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.489403392767713</v>
+        <v>4.156174679930189</v>
       </c>
       <c r="C25">
-        <v>0.3284307758003706</v>
+        <v>0.5760174725008653</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09885533569605798</v>
+        <v>0.03362531279228875</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2418629077081889</v>
+        <v>0.1118994275277601</v>
       </c>
       <c r="H25">
-        <v>0.4296824480512527</v>
+        <v>0.1266739971555779</v>
       </c>
       <c r="I25">
-        <v>0.383866872308654</v>
+        <v>0.08380878260960944</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2316286694593117</v>
+        <v>0.3912654882967104</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.259836239717316</v>
+        <v>0.4533830803949996</v>
       </c>
     </row>
   </sheetData>
